--- a/biology/Mycologie/Allomyces/Allomyces.xlsx
+++ b/biology/Mycologie/Allomyces/Allomyces.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Allomyces est un genre de champignons chytridés de la famille des Blastocladiaceae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Allomyces est un genre de champignons chytridés de la famille des Blastocladiaceae.
 Il a été décrit par le mycologue anglais Edwin John Butler en 1911.
 Les espèces de ce genre ont un thalle polycentrique et une reproduction asexuée par zoospores qui ont un flagelle en forme de fouet.
 </t>
@@ -513,9 +525,11 @@
           <t>Habitats</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces d'Allomyces sont pour la plupart trouvées dans les sols tropicaux et/ou sont communes dans l'eau de mares, de rizières ou de cours d'eau à courant lents[2]
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces d'Allomyces sont pour la plupart trouvées dans les sols tropicaux et/ou sont communes dans l'eau de mares, de rizières ou de cours d'eau à courant lents
 </t>
         </is>
       </c>
@@ -544,7 +558,9 @@
           <t>Espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Allomyces anomalus
